--- a/BalanceSheet/WRK_bal.xlsx
+++ b/BalanceSheet/WRK_bal.xlsx
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-44300000.0</v>
+        <v>2085000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>92500000.0</v>
+        <v>2023000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-7500000.0</v>
+        <v>2138000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>20700000.0</v>
+        <v>2125000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-83900000.0</v>
+        <v>2190000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2107500000.0</v>
@@ -1948,19 +1948,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-5400000.0</v>
+        <v>1672000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>153700000.0</v>
+        <v>1674000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-133400000.0</v>
+        <v>1514000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-59200000.0</v>
+        <v>1696000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-47500000.0</v>
+        <v>1781000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1831800000.0</v>
@@ -2950,19 +2950,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-19600000.0</v>
+        <v>2911000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>26900000.0</v>
+        <v>2917000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4700000.0</v>
+        <v>2888000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>8300000.0</v>
+        <v>2878000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3100000.0</v>
+        <v>2892000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2878000000.0</v>
